--- a/data_year/zb/住宿和餐饮业/限额以上餐饮业企业基本情况和经营情况/按登记注册类型和行业分限额以上餐饮业企业餐费收入.xlsx
+++ b/data_year/zb/住宿和餐饮业/限额以上餐饮业企业基本情况和经营情况/按登记注册类型和行业分限额以上餐饮业企业餐费收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,1703 +623,1339 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.28414</v>
+        <v>16.3</v>
       </c>
       <c r="C2" t="n">
-        <v>78.54738</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
+        <v>119.6</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>135.45479</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
+        <v>409.9</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>1.6411</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>5.80908</v>
+        <v>54.6</v>
       </c>
       <c r="I2" t="n">
-        <v>22.85801</v>
+        <v>100.6</v>
       </c>
       <c r="J2" t="n">
-        <v>736.1557299999999</v>
+        <v>2118.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0.37292</v>
+        <v>0.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.20322</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>0.84972</v>
+        <v>0.1</v>
       </c>
       <c r="N2" t="n">
-        <v>36.43135</v>
+        <v>55.8</v>
       </c>
       <c r="O2" t="n">
-        <v>0.28625</v>
+        <v>15.1</v>
       </c>
       <c r="P2" t="n">
-        <v>211.07702</v>
+        <v>539.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>86.95925</v>
+        <v>388.2</v>
       </c>
       <c r="R2" t="n">
-        <v>201.52013</v>
+        <v>566.9</v>
       </c>
       <c r="S2" t="n">
-        <v>136.65801</v>
+        <v>416.4</v>
       </c>
       <c r="T2" t="n">
-        <v>799.31889</v>
+        <v>2194.3</v>
       </c>
       <c r="U2" t="n">
-        <v>13.11034</v>
+        <v>13.7</v>
       </c>
       <c r="V2" t="n">
-        <v>42.12204</v>
+        <v>68.8</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05603</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>83.60496999999999</v>
+        <v>235.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>28.31656</v>
+        <v>144.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>24.20305</v>
+        <v>63.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>344.5751</v>
+        <v>923</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.08920000000001</v>
+        <v>369.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>25.65683</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>481.52418</v>
+        <v>1452.8</v>
       </c>
       <c r="AE2" t="n">
-        <v>3.3179</v>
+        <v>2.3</v>
       </c>
       <c r="AF2" t="n">
-        <v>22.75111</v>
+        <v>24.3</v>
       </c>
       <c r="AG2" t="n">
-        <v>25.36666</v>
+        <v>84.3</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.45416</v>
+        <v>0.4</v>
       </c>
       <c r="AI2" t="n">
-        <v>24.29744</v>
+        <v>27.9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1030.8</v>
+        <v>2893.228</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="n">
-        <v>7.14069</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.9834</v>
+      </c>
+      <c r="C3" t="n">
+        <v>172.782</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.5939</v>
+      </c>
+      <c r="E3" t="n">
+        <v>562.4012</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1202</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.2185</v>
+      </c>
+      <c r="H3" t="n">
+        <v>114.8427</v>
+      </c>
+      <c r="I3" t="n">
+        <v>113.9916</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2466.4623</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2019</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.9146</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2133</v>
+      </c>
+      <c r="N3" t="n">
+        <v>68.3758</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.4608</v>
+      </c>
+      <c r="P3" t="n">
+        <v>678.2671</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>487.447</v>
+      </c>
+      <c r="R3" t="n">
+        <v>740.0405</v>
+      </c>
+      <c r="S3" t="n">
+        <v>569.3158</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2542.7559</v>
+      </c>
+      <c r="U3" t="n">
+        <v>15.9672</v>
+      </c>
+      <c r="V3" t="n">
+        <v>78.10039999999999</v>
+      </c>
+      <c r="W3" t="n">
+        <v>10.2172</v>
+      </c>
+      <c r="X3" t="n">
+        <v>289.0449</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>184.6399</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>60.3366</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1070.6773</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>347.8524</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>79.7585</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1558.6248</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3.8483</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>24.5415</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>99.09010000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2.2146</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>27.8233</v>
+      </c>
       <c r="AJ3" t="n">
-        <v>1124</v>
+        <v>3433.7743</v>
       </c>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>36.9863</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13.43886</v>
+      </c>
+      <c r="C4" t="n">
+        <v>188.50188</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.11664</v>
+      </c>
+      <c r="E4" t="n">
+        <v>722.41998</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.33317</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.94656</v>
+      </c>
+      <c r="H4" t="n">
+        <v>125.77646</v>
+      </c>
+      <c r="I4" t="n">
+        <v>102.49688</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2859.21943</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>10.04008</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.10813</v>
+      </c>
+      <c r="N4" t="n">
+        <v>74.83257999999999</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.84803</v>
+      </c>
+      <c r="P4" t="n">
+        <v>784.27056</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>576.36515</v>
+      </c>
+      <c r="R4" t="n">
+        <v>871.20919</v>
+      </c>
+      <c r="S4" t="n">
+        <v>732.46006</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2930.72735</v>
+      </c>
+      <c r="U4" t="n">
+        <v>20.48499</v>
+      </c>
+      <c r="V4" t="n">
+        <v>77.31607</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2.29023</v>
+      </c>
+      <c r="X4" t="n">
+        <v>323.23944</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>222.81498</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>54.69536</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1236.55105</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>387.80472</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>78.62223</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1757.67336</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>4.43213</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>22.23969</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>114.09862</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>3.37744</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>27.70653</v>
+      </c>
       <c r="AJ4" t="n">
-        <v>1410.6</v>
+        <v>3966.72943</v>
       </c>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>62.29601</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11.02741</v>
+      </c>
+      <c r="C5" t="n">
+        <v>179.81331</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.15092</v>
+      </c>
+      <c r="E5" t="n">
+        <v>761.34155</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.22951</v>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>48.71569</v>
+      </c>
+      <c r="I5" t="n">
+        <v>136.68067</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2902.68389</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>22.92259</v>
+      </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>50.25611</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.24521</v>
+      </c>
+      <c r="P5" t="n">
+        <v>812.42522</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>616.18837</v>
+      </c>
+      <c r="R5" t="n">
+        <v>882.74436</v>
+      </c>
+      <c r="S5" t="n">
+        <v>784.26414</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2956.37867</v>
+      </c>
+      <c r="U5" t="n">
+        <v>19.90343</v>
+      </c>
+      <c r="V5" t="n">
+        <v>65.73779999999999</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.86816</v>
+      </c>
+      <c r="X5" t="n">
+        <v>340.9579</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>253.219</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>40.02275</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1398.69771</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>346.60325</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>78.21134000000001</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1863.53505</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>3.62212</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>14.83919</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>116.57988</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>3.62212</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>20.87171</v>
+      </c>
       <c r="AJ5" t="n">
-        <v>1711.31743</v>
+        <v>4056.06701</v>
       </c>
       <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>80.26331</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.5837</v>
+        <v>10.22895</v>
       </c>
       <c r="C6" t="n">
-        <v>102.2929</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>186.7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.5407</v>
+      </c>
       <c r="E6" t="n">
-        <v>301.918</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>2.0055</v>
-      </c>
+        <v>790.86967</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.55244</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>52.3584</v>
+        <v>46.00584</v>
       </c>
       <c r="I6" t="n">
-        <v>64.5877</v>
+        <v>150.2</v>
       </c>
       <c r="J6" t="n">
-        <v>1746.968</v>
+        <v>2897.1</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1.9179</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.3847</v>
-      </c>
+        <v>25.95501</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>45.5379</v>
+        <v>48.49761</v>
       </c>
       <c r="O6" t="n">
-        <v>10.5775</v>
+        <v>4.46368</v>
       </c>
       <c r="P6" t="n">
-        <v>434.0435</v>
+        <v>829.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>300.5894</v>
+        <v>626.40739</v>
       </c>
       <c r="R6" t="n">
-        <v>436.9134</v>
+        <v>911.22869</v>
       </c>
       <c r="S6" t="n">
-        <v>303.8359</v>
+        <v>816.8246799999999</v>
       </c>
       <c r="T6" t="n">
-        <v>1841.7045</v>
+        <v>2938.3</v>
       </c>
       <c r="U6" t="n">
-        <v>12.1408</v>
+        <v>18.44891</v>
       </c>
       <c r="V6" t="n">
-        <v>35.927</v>
+        <v>70.58583</v>
       </c>
       <c r="W6" t="n">
-        <v>23.3397</v>
+        <v>2.35568</v>
       </c>
       <c r="X6" t="n">
-        <v>177.3768</v>
+        <v>393.80962</v>
       </c>
       <c r="Y6" t="n">
-        <v>105.9692</v>
+        <v>301.86676</v>
       </c>
       <c r="Z6" t="n">
-        <v>57.9375</v>
+        <v>36.72774</v>
       </c>
       <c r="AA6" t="n">
-        <v>745.696</v>
+        <v>1421</v>
       </c>
       <c r="AB6" t="n">
-        <v>379.8204</v>
+        <v>309.91949</v>
       </c>
       <c r="AC6" t="n">
-        <v>53.2294</v>
+        <v>74.35066</v>
       </c>
       <c r="AD6" t="n">
-        <v>1236.6833</v>
+        <v>1842</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.7376</v>
+        <v>3.72454</v>
       </c>
       <c r="AF6" t="n">
-        <v>22.1197</v>
+        <v>13.6546</v>
       </c>
       <c r="AG6" t="n">
-        <v>57.791</v>
+        <v>107.10623</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.3174</v>
+        <v>3.72454</v>
       </c>
       <c r="AI6" t="n">
-        <v>25.9042</v>
+        <v>19.26885</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2358.3883</v>
+        <v>4120.2</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>15.1826</v>
+        <v>120.54703</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.03984</v>
+        <v>6.1512</v>
       </c>
       <c r="C7" t="n">
-        <v>106.65248</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>191.6129</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8973</v>
+      </c>
       <c r="E7" t="n">
-        <v>346.33767</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>1.48506</v>
-      </c>
+        <v>899.8274</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.7314</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>44.44222</v>
+        <v>44.8335</v>
       </c>
       <c r="I7" t="n">
-        <v>84.65805</v>
+        <v>170.8514</v>
       </c>
       <c r="J7" t="n">
-        <v>1792.72366</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.10378</v>
-      </c>
+        <v>3063.1464</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.43816</v>
+        <v>22.8015</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>46.23927</v>
+        <v>47.0447</v>
       </c>
       <c r="O7" t="n">
-        <v>12.73978</v>
+        <v>3.8308</v>
       </c>
       <c r="P7" t="n">
-        <v>452.16951</v>
+        <v>866.2372</v>
       </c>
       <c r="Q7" t="n">
-        <v>311.73741</v>
+        <v>663.745</v>
       </c>
       <c r="R7" t="n">
-        <v>495.33462</v>
+        <v>956.6144</v>
       </c>
       <c r="S7" t="n">
-        <v>347.77583</v>
+        <v>922.6292</v>
       </c>
       <c r="T7" t="n">
-        <v>1836.74997</v>
+        <v>3068.6078</v>
       </c>
       <c r="U7" t="n">
-        <v>13.12821</v>
+        <v>16.8083</v>
       </c>
       <c r="V7" t="n">
-        <v>39.66888</v>
+        <v>69.2885</v>
       </c>
       <c r="W7" t="n">
-        <v>25.73764</v>
+        <v>2.776</v>
       </c>
       <c r="X7" t="n">
-        <v>196.41397</v>
+        <v>414.0827</v>
       </c>
       <c r="Y7" t="n">
-        <v>117.87924</v>
+        <v>322.4786</v>
       </c>
       <c r="Z7" t="n">
-        <v>56.52189</v>
+        <v>35.8565</v>
       </c>
       <c r="AA7" t="n">
-        <v>776.55066</v>
+        <v>1458.2468</v>
       </c>
       <c r="AB7" t="n">
-        <v>331.131</v>
+        <v>321.5679</v>
       </c>
       <c r="AC7" t="n">
-        <v>69.85223000000001</v>
+        <v>97.36879999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>1234.05578</v>
+        <v>1913.0398</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.80178</v>
+        <v>0.8315</v>
       </c>
       <c r="AF7" t="n">
-        <v>21.81158</v>
+        <v>12.0841</v>
       </c>
       <c r="AG7" t="n">
-        <v>69.25032</v>
+        <v>104.8146</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.21294</v>
+        <v>0.8315</v>
       </c>
       <c r="AI7" t="n">
-        <v>27.34688</v>
+        <v>17.8698</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2441.30714</v>
+        <v>4343.4656</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>24.5645</v>
+        <v>147.3925</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.3</v>
+        <v>5.1404</v>
       </c>
       <c r="C8" t="n">
-        <v>119.6</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>177.5609</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26.2449</v>
+      </c>
       <c r="E8" t="n">
-        <v>409.9</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>1.5</v>
-      </c>
+        <v>935.8154</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.2276</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>54.6</v>
+        <v>41.0414</v>
       </c>
       <c r="I8" t="n">
-        <v>100.6</v>
+        <v>194.2489</v>
       </c>
       <c r="J8" t="n">
-        <v>2118.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.3</v>
-      </c>
+        <v>3215.6612</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.1</v>
-      </c>
+        <v>28.7951</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>55.8</v>
+        <v>46.6428</v>
       </c>
       <c r="O8" t="n">
-        <v>15.1</v>
+        <v>2.7422</v>
       </c>
       <c r="P8" t="n">
-        <v>539.2</v>
+        <v>834.7725</v>
       </c>
       <c r="Q8" t="n">
-        <v>388.2</v>
+        <v>623.0839999999999</v>
       </c>
       <c r="R8" t="n">
-        <v>566.9</v>
+        <v>1016.2943</v>
       </c>
       <c r="S8" t="n">
-        <v>416.4</v>
+        <v>964.6105</v>
       </c>
       <c r="T8" t="n">
-        <v>2194.3</v>
+        <v>3182.4387</v>
       </c>
       <c r="U8" t="n">
-        <v>13.7</v>
+        <v>14.9799</v>
       </c>
       <c r="V8" t="n">
-        <v>68.8</v>
+        <v>101.1513</v>
       </c>
       <c r="W8" t="n">
-        <v>8.699999999999999</v>
+        <v>2.7563</v>
       </c>
       <c r="X8" t="n">
-        <v>235.5</v>
+        <v>511.7085</v>
       </c>
       <c r="Y8" t="n">
-        <v>144.4</v>
+        <v>391.5933</v>
       </c>
       <c r="Z8" t="n">
-        <v>63.1</v>
+        <v>33.3044</v>
       </c>
       <c r="AA8" t="n">
-        <v>923</v>
+        <v>1573.8259</v>
       </c>
       <c r="AB8" t="n">
-        <v>369.8</v>
+        <v>316.2509</v>
       </c>
       <c r="AC8" t="n">
-        <v>96.90000000000001</v>
+        <v>89.55589999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>1452.8</v>
+        <v>2012.9364</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.3</v>
+        <v>0.6514</v>
       </c>
       <c r="AF8" t="n">
-        <v>24.3</v>
+        <v>11.6742</v>
       </c>
       <c r="AG8" t="n">
-        <v>84.3</v>
+        <v>119.2074</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.4</v>
+        <v>0.6514</v>
       </c>
       <c r="AI8" t="n">
-        <v>27.9</v>
+        <v>18.8972</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2893.228</v>
+        <v>4562.142</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
-        <v>31.4</v>
+        <v>169.1604</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.9834</v>
+        <v>5.113</v>
       </c>
       <c r="C9" t="n">
-        <v>172.782</v>
+        <v>184.257</v>
       </c>
       <c r="D9" t="n">
-        <v>1.5939</v>
+        <v>31.351</v>
       </c>
       <c r="E9" t="n">
-        <v>562.4012</v>
+        <v>960.6596</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1202</v>
+        <v>1.359</v>
       </c>
       <c r="G9" t="n">
-        <v>1.2185</v>
+        <v>0.145</v>
       </c>
       <c r="H9" t="n">
-        <v>114.8427</v>
+        <v>28.65</v>
       </c>
       <c r="I9" t="n">
-        <v>113.9916</v>
+        <v>204.344</v>
       </c>
       <c r="J9" t="n">
-        <v>2466.4623</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.2019</v>
-      </c>
+        <v>3215.1735</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.9146</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.2133</v>
-      </c>
+        <v>23.485</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>68.3758</v>
+        <v>40.399</v>
       </c>
       <c r="O9" t="n">
-        <v>4.4608</v>
+        <v>25.646</v>
       </c>
       <c r="P9" t="n">
-        <v>678.2671</v>
+        <v>874.107</v>
       </c>
       <c r="Q9" t="n">
-        <v>487.447</v>
+        <v>627.739</v>
       </c>
       <c r="R9" t="n">
-        <v>740.0405</v>
+        <v>1185.021</v>
       </c>
       <c r="S9" t="n">
-        <v>569.3158</v>
+        <v>984.141</v>
       </c>
       <c r="T9" t="n">
-        <v>2542.7559</v>
+        <v>3137.9746</v>
       </c>
       <c r="U9" t="n">
-        <v>15.9672</v>
+        <v>16.389</v>
       </c>
       <c r="V9" t="n">
-        <v>78.10039999999999</v>
+        <v>117.372</v>
       </c>
       <c r="W9" t="n">
-        <v>10.2172</v>
+        <v>1.465</v>
       </c>
       <c r="X9" t="n">
-        <v>289.0449</v>
+        <v>642.819</v>
       </c>
       <c r="Y9" t="n">
-        <v>184.6399</v>
+        <v>506.234</v>
       </c>
       <c r="Z9" t="n">
-        <v>60.3366</v>
+        <v>27.468</v>
       </c>
       <c r="AA9" t="n">
-        <v>1070.6773</v>
+        <v>1657.9629</v>
       </c>
       <c r="AB9" t="n">
-        <v>347.8524</v>
+        <v>256.849</v>
       </c>
       <c r="AC9" t="n">
-        <v>79.7585</v>
+        <v>67.999</v>
       </c>
       <c r="AD9" t="n">
-        <v>1558.6248</v>
+        <v>2010.2794</v>
       </c>
       <c r="AE9" t="n">
-        <v>3.8483</v>
+        <v>0.742</v>
       </c>
       <c r="AF9" t="n">
-        <v>24.5415</v>
+        <v>11.912</v>
       </c>
       <c r="AG9" t="n">
-        <v>99.09010000000001</v>
+        <v>121.137</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.2146</v>
+        <v>0.597</v>
       </c>
       <c r="AI9" t="n">
-        <v>27.8233</v>
+        <v>17.912</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3433.7743</v>
+        <v>4732.0996</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
-        <v>36.9863</v>
+        <v>204.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.43886</v>
+        <v>2.8</v>
       </c>
       <c r="C10" t="n">
-        <v>188.50188</v>
+        <v>182</v>
       </c>
       <c r="D10" t="n">
-        <v>1.11664</v>
+        <v>37.5</v>
       </c>
       <c r="E10" t="n">
-        <v>722.41998</v>
+        <v>944.4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.33317</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.94656</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>125.77646</v>
+        <v>5.1</v>
       </c>
       <c r="I10" t="n">
-        <v>102.49688</v>
+        <v>112.7</v>
       </c>
       <c r="J10" t="n">
-        <v>2859.21943</v>
+        <v>3388.1</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>10.04008</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.10813</v>
-      </c>
+        <v>27.9</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>74.83257999999999</v>
+        <v>31.8</v>
       </c>
       <c r="O10" t="n">
-        <v>4.84803</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>784.27056</v>
+        <v>900</v>
       </c>
       <c r="Q10" t="n">
-        <v>576.36515</v>
+        <v>675.7</v>
       </c>
       <c r="R10" t="n">
-        <v>871.20919</v>
+        <v>1224.1</v>
       </c>
       <c r="S10" t="n">
-        <v>732.46006</v>
+        <v>972.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2930.72735</v>
+        <v>3265.4</v>
       </c>
       <c r="U10" t="n">
-        <v>20.48499</v>
+        <v>11.9</v>
       </c>
       <c r="V10" t="n">
-        <v>77.31607</v>
+        <v>126.8</v>
       </c>
       <c r="W10" t="n">
-        <v>2.29023</v>
+        <v>2.9</v>
       </c>
       <c r="X10" t="n">
-        <v>323.23944</v>
+        <v>709.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.81498</v>
+        <v>567.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>54.69536</v>
+        <v>30.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1236.55105</v>
+        <v>1936.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>387.80472</v>
+        <v>214.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>78.62223</v>
+        <v>60.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>1757.67336</v>
+        <v>2241.8</v>
       </c>
       <c r="AE10" t="n">
-        <v>4.43213</v>
+        <v>0.9</v>
       </c>
       <c r="AF10" t="n">
-        <v>22.23969</v>
+        <v>12.2</v>
       </c>
       <c r="AG10" t="n">
-        <v>114.09862</v>
+        <v>111.3</v>
       </c>
       <c r="AH10" t="n">
-        <v>3.37744</v>
+        <v>0.7</v>
       </c>
       <c r="AI10" t="n">
-        <v>27.70653</v>
+        <v>12.7</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3966.72943</v>
-      </c>
-      <c r="AK10" t="inlineStr"/>
+        <v>4997.7</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>143.9</v>
+      </c>
       <c r="AL10" t="n">
-        <v>62.29601</v>
+        <v>251.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.02741</v>
+        <v>2.717</v>
       </c>
       <c r="C11" t="n">
-        <v>179.81331</v>
+        <v>205.4898</v>
       </c>
       <c r="D11" t="n">
-        <v>1.15092</v>
+        <v>63.97</v>
       </c>
       <c r="E11" t="n">
-        <v>761.34155</v>
+        <v>1114.4921</v>
       </c>
       <c r="F11" t="n">
-        <v>0.22951</v>
+        <v>1.2476</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>48.71569</v>
+        <v>2.0104</v>
       </c>
       <c r="I11" t="n">
-        <v>136.68067</v>
+        <v>175.105</v>
       </c>
       <c r="J11" t="n">
-        <v>2902.68389</v>
+        <v>4077.4159</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>22.92259</v>
+        <v>35.7037</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>50.25611</v>
+        <v>29.4916</v>
       </c>
       <c r="O11" t="n">
-        <v>4.24521</v>
+        <v>3.2943</v>
       </c>
       <c r="P11" t="n">
-        <v>812.42522</v>
+        <v>1022.8288</v>
       </c>
       <c r="Q11" t="n">
-        <v>616.18837</v>
+        <v>747.3577</v>
       </c>
       <c r="R11" t="n">
-        <v>882.74436</v>
+        <v>1396.3699</v>
       </c>
       <c r="S11" t="n">
-        <v>784.26414</v>
+        <v>1150.1957</v>
       </c>
       <c r="T11" t="n">
-        <v>2956.37867</v>
+        <v>3759.3553</v>
       </c>
       <c r="U11" t="n">
-        <v>19.90343</v>
+        <v>12.0226</v>
       </c>
       <c r="V11" t="n">
-        <v>65.73779999999999</v>
+        <v>133.4767</v>
       </c>
       <c r="W11" t="n">
-        <v>1.86816</v>
+        <v>25.4544</v>
       </c>
       <c r="X11" t="n">
-        <v>340.9579</v>
+        <v>786.3366</v>
       </c>
       <c r="Y11" t="n">
-        <v>253.219</v>
+        <v>614.1351</v>
       </c>
       <c r="Z11" t="n">
-        <v>40.02275</v>
+        <v>35.9849</v>
       </c>
       <c r="AA11" t="n">
-        <v>1398.69771</v>
+        <v>2428.0761</v>
       </c>
       <c r="AB11" t="n">
-        <v>346.60325</v>
+        <v>222.976</v>
       </c>
       <c r="AC11" t="n">
-        <v>78.21134000000001</v>
+        <v>66.691</v>
       </c>
       <c r="AD11" t="n">
-        <v>1863.53505</v>
+        <v>2753.728</v>
       </c>
       <c r="AE11" t="n">
-        <v>3.62212</v>
+        <v>0.7611</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.83919</v>
+        <v>12.7693</v>
       </c>
       <c r="AG11" t="n">
-        <v>116.57988</v>
+        <v>116.4831</v>
       </c>
       <c r="AH11" t="n">
-        <v>3.62212</v>
+        <v>0.6005</v>
       </c>
       <c r="AI11" t="n">
-        <v>20.87171</v>
+        <v>11.9774</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4056.06701</v>
-      </c>
-      <c r="AK11" t="inlineStr"/>
+        <v>5886.5811</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>203.1606</v>
+      </c>
       <c r="AL11" t="n">
-        <v>80.26331</v>
+        <v>352.5905</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.22895</v>
+        <v>12.9383</v>
       </c>
       <c r="C12" t="n">
-        <v>186.7</v>
+        <v>196.3093</v>
       </c>
       <c r="D12" t="n">
-        <v>1.5407</v>
+        <v>16.693</v>
       </c>
       <c r="E12" t="n">
-        <v>790.86967</v>
+        <v>737.4846</v>
       </c>
       <c r="F12" t="n">
-        <v>0.55244</v>
+        <v>0.6197</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>46.00584</v>
+        <v>2.8787</v>
       </c>
       <c r="I12" t="n">
-        <v>150.2</v>
+        <v>211.022</v>
       </c>
       <c r="J12" t="n">
-        <v>2897.1</v>
+        <v>3839.2016</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>25.95501</v>
+        <v>38.7394</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>48.49761</v>
+        <v>30.6608</v>
       </c>
       <c r="O12" t="n">
-        <v>4.46368</v>
+        <v>2.6275</v>
       </c>
       <c r="P12" t="n">
-        <v>829.3</v>
+        <v>904.8621000000001</v>
       </c>
       <c r="Q12" t="n">
-        <v>626.40739</v>
+        <v>676.2943</v>
       </c>
       <c r="R12" t="n">
-        <v>911.22869</v>
+        <v>1286.9942</v>
       </c>
       <c r="S12" t="n">
-        <v>816.8246799999999</v>
+        <v>776.224</v>
       </c>
       <c r="T12" t="n">
-        <v>2938.3</v>
+        <v>3343.8711</v>
       </c>
       <c r="U12" t="n">
-        <v>18.44891</v>
+        <v>8.985099999999999</v>
       </c>
       <c r="V12" t="n">
-        <v>70.58583</v>
+        <v>118.6887</v>
       </c>
       <c r="W12" t="n">
-        <v>2.35568</v>
+        <v>2.6588</v>
       </c>
       <c r="X12" t="n">
-        <v>393.80962</v>
+        <v>701.6621</v>
       </c>
       <c r="Y12" t="n">
-        <v>301.86676</v>
+        <v>570.7101</v>
       </c>
       <c r="Z12" t="n">
-        <v>36.72774</v>
+        <v>31.4297</v>
       </c>
       <c r="AA12" t="n">
-        <v>1421</v>
+        <v>2643.1584</v>
       </c>
       <c r="AB12" t="n">
-        <v>309.91949</v>
+        <v>213.221</v>
       </c>
       <c r="AC12" t="n">
-        <v>74.35066</v>
+        <v>79.70189999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>1842</v>
+        <v>2967.511</v>
       </c>
       <c r="AE12" t="n">
-        <v>3.72454</v>
+        <v>0.1479</v>
       </c>
       <c r="AF12" t="n">
-        <v>13.6546</v>
+        <v>10.3655</v>
       </c>
       <c r="AG12" t="n">
-        <v>107.10623</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>3.72454</v>
-      </c>
+        <v>43.4569</v>
+      </c>
+      <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="n">
-        <v>19.26885</v>
+        <v>7.9572</v>
       </c>
       <c r="AJ12" t="n">
-        <v>4120.2</v>
-      </c>
-      <c r="AK12" t="inlineStr"/>
+        <v>5445.7254</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>263.4084</v>
+      </c>
       <c r="AL12" t="n">
-        <v>120.54703</v>
+        <v>340.4298</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.1512</v>
+        <v>6.7894</v>
       </c>
       <c r="C13" t="n">
-        <v>191.6129</v>
+        <v>213.4045</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8973</v>
+        <v>22.2391</v>
       </c>
       <c r="E13" t="n">
-        <v>899.8274</v>
+        <v>997.7674</v>
       </c>
       <c r="F13" t="n">
-        <v>2.7314</v>
+        <v>5.6719</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>44.8335</v>
+        <v>2.0685</v>
       </c>
       <c r="I13" t="n">
-        <v>170.8514</v>
+        <v>389.9727</v>
       </c>
       <c r="J13" t="n">
-        <v>3063.1464</v>
+        <v>5262.3564</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>22.8015</v>
+        <v>48.2267</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>47.0447</v>
+        <v>30.9239</v>
       </c>
       <c r="O13" t="n">
-        <v>3.8308</v>
+        <v>4.0596</v>
       </c>
       <c r="P13" t="n">
-        <v>866.2372</v>
+        <v>1069.1822</v>
       </c>
       <c r="Q13" t="n">
-        <v>663.745</v>
+        <v>822.6895</v>
       </c>
       <c r="R13" t="n">
-        <v>956.6144</v>
+        <v>1504.4963</v>
       </c>
       <c r="S13" t="n">
-        <v>922.6292</v>
+        <v>1045.9942</v>
       </c>
       <c r="T13" t="n">
-        <v>3068.6078</v>
+        <v>4477.7107</v>
       </c>
       <c r="U13" t="n">
-        <v>16.8083</v>
+        <v>10.1758</v>
       </c>
       <c r="V13" t="n">
-        <v>69.2885</v>
+        <v>138.4261</v>
       </c>
       <c r="W13" t="n">
-        <v>2.776</v>
+        <v>3.9993</v>
       </c>
       <c r="X13" t="n">
-        <v>414.0827</v>
+        <v>876.766</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.4786</v>
+        <v>718.4930000000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>35.8565</v>
+        <v>40.1155</v>
       </c>
       <c r="AA13" t="n">
-        <v>1458.2468</v>
+        <v>3679.9633</v>
       </c>
       <c r="AB13" t="n">
-        <v>321.5679</v>
+        <v>254.3468</v>
       </c>
       <c r="AC13" t="n">
-        <v>97.36879999999999</v>
+        <v>134.3497</v>
       </c>
       <c r="AD13" t="n">
-        <v>1913.0398</v>
+        <v>4108.7753</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.8315</v>
+        <v>1.3951</v>
       </c>
       <c r="AF13" t="n">
-        <v>12.0841</v>
+        <v>12.9024</v>
       </c>
       <c r="AG13" t="n">
-        <v>104.8146</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0.8315</v>
-      </c>
+        <v>48.5186</v>
+      </c>
+      <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="n">
-        <v>17.8698</v>
+        <v>11.7783</v>
       </c>
       <c r="AJ13" t="n">
-        <v>4343.4656</v>
-      </c>
-      <c r="AK13" t="inlineStr"/>
+        <v>7208.3046</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>359.835300000001</v>
+      </c>
       <c r="AL13" t="n">
-        <v>147.3925</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5.1404</v>
-      </c>
-      <c r="C14" t="n">
-        <v>177.5609</v>
-      </c>
-      <c r="D14" t="n">
-        <v>26.2449</v>
-      </c>
-      <c r="E14" t="n">
-        <v>935.8154</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.2276</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>41.0414</v>
-      </c>
-      <c r="I14" t="n">
-        <v>194.2489</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3215.6612</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>28.7951</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>46.6428</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2.7422</v>
-      </c>
-      <c r="P14" t="n">
-        <v>834.7725</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>623.0839999999999</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1016.2943</v>
-      </c>
-      <c r="S14" t="n">
-        <v>964.6105</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3182.4387</v>
-      </c>
-      <c r="U14" t="n">
-        <v>14.9799</v>
-      </c>
-      <c r="V14" t="n">
-        <v>101.1513</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.7563</v>
-      </c>
-      <c r="X14" t="n">
-        <v>511.7085</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>391.5933</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>33.3044</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1573.8259</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>316.2509</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>89.55589999999999</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>2012.9364</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.6514</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11.6742</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>119.2074</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0.6514</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>18.8972</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>4562.142</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>169.1604</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5.113</v>
-      </c>
-      <c r="C15" t="n">
-        <v>184.257</v>
-      </c>
-      <c r="D15" t="n">
-        <v>31.351</v>
-      </c>
-      <c r="E15" t="n">
-        <v>960.6596</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.359</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="H15" t="n">
-        <v>28.65</v>
-      </c>
-      <c r="I15" t="n">
-        <v>204.344</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3215.1735</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>23.485</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>40.399</v>
-      </c>
-      <c r="O15" t="n">
-        <v>25.646</v>
-      </c>
-      <c r="P15" t="n">
-        <v>874.107</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>627.739</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1185.021</v>
-      </c>
-      <c r="S15" t="n">
-        <v>984.141</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3137.9746</v>
-      </c>
-      <c r="U15" t="n">
-        <v>16.389</v>
-      </c>
-      <c r="V15" t="n">
-        <v>117.372</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.465</v>
-      </c>
-      <c r="X15" t="n">
-        <v>642.819</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>506.234</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>27.468</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1657.9629</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>256.849</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>67.999</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>2010.2794</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.742</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>11.912</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>121.137</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0.597</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>17.912</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>4732.0996</v>
-      </c>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="n">
-        <v>204.76</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>182</v>
-      </c>
-      <c r="D16" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>944.4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>112.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3388.1</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>900</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>675.7</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1224.1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>972.3</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3265.4</v>
-      </c>
-      <c r="U16" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="V16" t="n">
-        <v>126.8</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="X16" t="n">
-        <v>709.6</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>567.4</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1936.2</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>214.3</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>2241.8</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>111.3</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>4997.7</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>251.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2.717</v>
-      </c>
-      <c r="C17" t="n">
-        <v>205.4898</v>
-      </c>
-      <c r="D17" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1114.4921</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.2476</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>2.0104</v>
-      </c>
-      <c r="I17" t="n">
-        <v>175.105</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4077.4159</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>35.7037</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>29.4916</v>
-      </c>
-      <c r="O17" t="n">
-        <v>3.2943</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1022.8288</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>747.3577</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1396.3699</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1150.1957</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3759.3553</v>
-      </c>
-      <c r="U17" t="n">
-        <v>12.0226</v>
-      </c>
-      <c r="V17" t="n">
-        <v>133.4767</v>
-      </c>
-      <c r="W17" t="n">
-        <v>25.4544</v>
-      </c>
-      <c r="X17" t="n">
-        <v>786.3366</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>614.1351</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>35.9849</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>2428.0761</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>222.976</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>66.691</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>2753.728</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.7611</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>12.7693</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>116.4831</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0.6005</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>11.9774</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>5886.5811</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>203.1606</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>352.5905</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>12.9383</v>
-      </c>
-      <c r="C18" t="n">
-        <v>196.3093</v>
-      </c>
-      <c r="D18" t="n">
-        <v>16.693</v>
-      </c>
-      <c r="E18" t="n">
-        <v>737.4846</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.6197</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>2.8787</v>
-      </c>
-      <c r="I18" t="n">
-        <v>211.022</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3839.2016</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>38.7394</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>30.6608</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2.6275</v>
-      </c>
-      <c r="P18" t="n">
-        <v>904.8621000000001</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>676.2943</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1286.9942</v>
-      </c>
-      <c r="S18" t="n">
-        <v>776.224</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3343.8711</v>
-      </c>
-      <c r="U18" t="n">
-        <v>8.985099999999999</v>
-      </c>
-      <c r="V18" t="n">
-        <v>118.6887</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.6588</v>
-      </c>
-      <c r="X18" t="n">
-        <v>701.6621</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>570.7101</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>31.4297</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>2643.1584</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>213.221</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>79.70189999999999</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2967.511</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0.1479</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>10.3655</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>43.4569</v>
-      </c>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="n">
-        <v>7.9572</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>5445.7254</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>263.4084</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>340.4298</v>
+        <v>476.2896</v>
       </c>
     </row>
   </sheetData>
